--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -534,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H2">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003136326271666667</v>
+        <v>0.004934279793333334</v>
       </c>
       <c r="R2">
-        <v>0.028226936445</v>
+        <v>0.04440851814</v>
       </c>
       <c r="S2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="T2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,10 +605,10 @@
         <v>0.231626</v>
       </c>
       <c r="I3">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J3">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +635,10 @@
         <v>0.04335691281</v>
       </c>
       <c r="S3">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="T3">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2610376666666667</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H4">
-        <v>0.7831129999999999</v>
+        <v>0.117518</v>
       </c>
       <c r="I4">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J4">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +691,78 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01628744521166667</v>
+        <v>0.002444178536666667</v>
       </c>
       <c r="R4">
-        <v>0.146587006905</v>
+        <v>0.02199760683</v>
       </c>
       <c r="S4">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="T4">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3772426666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.131728</v>
+      </c>
+      <c r="I5">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="J5">
+        <v>0.6587029048096869</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.062395</v>
+      </c>
+      <c r="N5">
+        <v>0.187185</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.02353805618666667</v>
+      </c>
+      <c r="R5">
+        <v>0.21184250568</v>
+      </c>
+      <c r="S5">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="T5">
+        <v>0.6587029048096869</v>
       </c>
     </row>
   </sheetData>
